--- a/meta/en/8-6-1.xlsx
+++ b/meta/en/8-6-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>(0312) 626076</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>This indicator conveys the proportion of youth aged 15-24 years not in education, employment or training in that age group.</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
